--- a/testModel01/testModel01/AssessFile/123.xlsx
+++ b/testModel01/testModel01/AssessFile/123.xlsx
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
